--- a/biology/Botanique/Glaucium_corniculatum/Glaucium_corniculatum.xlsx
+++ b/biology/Botanique/Glaucium_corniculatum/Glaucium_corniculatum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucienne écarlate, Glaucienne en cornet, Glaucière rouge
 Glaucium corniculatum, la Glaucienne écarlate, Glaucienne en cornet ou Glaucière rouge, est une espèce de la famille des Papaveraceae.
@@ -512,19 +524,17 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le nom scientifique complet (avec auteur) de ce taxon est Glaucium corniculatum (L.) Rudolph[1].
-L'espèce a été initialement classée dans le genre Chelidonium sous le basionyme Chelidonium corniculatum L.[1].
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : glaucienne corniculée[2],[3], glaucière corniculée[2], glaucière écarlate[2], glaucière en cornet[2], glaucière rouge[4], pavot cornu[2],[3], glaucienne à fruit en forme de corne[3], glaucienne en cornet[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le nom scientifique complet (avec auteur) de ce taxon est Glaucium corniculatum (L.) Rudolph.
+L'espèce a été initialement classée dans le genre Chelidonium sous le basionyme Chelidonium corniculatum L..
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : glaucienne corniculée glaucière corniculée, glaucière écarlate, glaucière en cornet, glaucière rouge, pavot cornu glaucienne à fruit en forme de corne, glaucienne en cornet.
 Synonymes
-Glaucium corniculatum a pour synonymes[1] :
+Glaucium corniculatum a pour synonymes :
 Glaucium grandiflorum Hayek
-Glaucium luteum subsp. corniculatum (L.) Bonnier &amp; Layens, 1894
-Liste des taxons de rang inférieur
-Liste des sous-espèces selon GBIF       (7 juillet 2021)[1] :
-Glaucium corniculatum subsp. corniculatum
-Glaucium corniculatum subsp. refractum (Nábelek) Cullen</t>
+Glaucium luteum subsp. corniculatum (L.) Bonnier &amp; Layens, 1894</t>
         </is>
       </c>
     </row>
@@ -549,13 +559,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La floraison a lieu d'avril à juillet[4].
-</t>
+          <t>Liste des taxons de rang inférieur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces selon GBIF       (7 juillet 2021) :
+Glaucium corniculatum subsp. corniculatum
+Glaucium corniculatum subsp. refractum (Nábelek) Cullen</t>
         </is>
       </c>
     </row>
@@ -580,13 +597,48 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu d'avril à juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glaucium_corniculatum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glaucium_corniculatum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen[4].
-Elle se rencontre dans les champs et friches à proximité de la mer[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout le bassin méditerranéen.
+Elle se rencontre dans les champs et friches à proximité de la mer.
 </t>
         </is>
       </c>
